--- a/forecast_summary_B0BSB4TYHV.xlsx
+++ b/forecast_summary_B0BSB4TYHV.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>4.763159483725935</v>
       </c>
       <c r="D2" t="n">
-        <v>23.07321959207397</v>
+        <v>22.27973161973453</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>3.943346475873142</v>
       </c>
       <c r="D3" t="n">
-        <v>21.46394651537203</v>
+        <v>21.78356656945808</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>2.254695866966433</v>
       </c>
       <c r="D4" t="n">
-        <v>19.49364385149906</v>
+        <v>18.73416917372046</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>0.8995764672673765</v>
       </c>
       <c r="D5" t="n">
-        <v>18.38902141497679</v>
+        <v>17.58672238606109</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.5568385532187033</v>
       </c>
       <c r="D6" t="n">
-        <v>15.92313846547823</v>
+        <v>18.27597937194703</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0.5672534651266461</v>
       </c>
       <c r="D7" t="n">
-        <v>18.03962562383511</v>
+        <v>16.71622328780431</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.05112017375634818</v>
       </c>
       <c r="D8" t="n">
-        <v>16.35832351083293</v>
+        <v>16.72182005463124</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-1.190250473471908</v>
       </c>
       <c r="D9" t="n">
-        <v>16.57246532881476</v>
+        <v>15.8327310455306</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-1.82420906901244</v>
       </c>
       <c r="D10" t="n">
-        <v>14.55187102287111</v>
+        <v>16.22588083225549</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>-1.502515283281347</v>
       </c>
       <c r="D11" t="n">
-        <v>15.56194577462532</v>
+        <v>17.48005382401196</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-1.043790251433822</v>
       </c>
       <c r="D12" t="n">
-        <v>17.32522075624642</v>
+        <v>15.51125480798775</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>-1.450936419238317</v>
       </c>
       <c r="D13" t="n">
-        <v>15.26058763210412</v>
+        <v>16.35337141730725</v>
       </c>
       <c r="E13" t="n">
         <v>9</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-2.577429271571195</v>
       </c>
       <c r="D14" t="n">
-        <v>14.76662043682052</v>
+        <v>14.68619659032993</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-3.40113901674259</v>
       </c>
       <c r="D15" t="n">
-        <v>12.99675598125932</v>
+        <v>13.39200689405017</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>-3.467237902543789</v>
       </c>
       <c r="D16" t="n">
-        <v>14.05647634979401</v>
+        <v>13.3058594744713</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-3.427599626517349</v>
       </c>
       <c r="D17" t="n">
-        <v>14.62829881884856</v>
+        <v>14.3295245912737</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-3.960896306775511</v>
       </c>
       <c r="D18" t="n">
-        <v>13.50590159114988</v>
+        <v>13.44860801066637</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-4.736246418433836</v>
       </c>
       <c r="D19" t="n">
-        <v>12.10240717535192</v>
+        <v>12.96076304108439</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-5.005260023343422</v>
       </c>
       <c r="D20" t="n">
-        <v>11.87394199253898</v>
+        <v>12.68569395099303</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>-4.926257238675728</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2142216415817</v>
+        <v>13.69527880146629</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
     </row>
